--- a/pensum/cursed_json.xlsx
+++ b/pensum/cursed_json.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\GitHub\pensum-extractor\pensum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324C4780-5EDC-4F46-8FE6-4EBE714E4B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B8DA0B-17CA-4631-8030-41C769259641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{E92E1668-6A1D-4109-AE2B-4CE0FD822644}"/>
+    <workbookView xWindow="2565" yWindow="1770" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{E92E1668-6A1D-4109-AE2B-4CE0FD822644}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="276">
   <si>
     <r>
       <t>CODIGO  DESCRIPCION</t>
@@ -966,6 +966,9 @@
   </si>
   <si>
     <t>FORMULAC.Y EVAL. DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>REMEMBER KIDS…. EXCEL IS A PROGRAMMING LANGUAGE :)</t>
   </si>
 </sst>
 </file>
@@ -1091,19 +1094,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1448,10 +1451,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="21" t="s">
@@ -1463,8 +1466,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2"/>
       <c r="G2" t="s">
@@ -2028,13 +2031,13 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>18</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="18"/>
       <c r="E10"/>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -2101,9 +2104,9 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11"/>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -2541,13 +2544,13 @@
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="17">
         <v>17</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="18"/>
       <c r="E17"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -2614,9 +2617,9 @@
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
       <c r="E18"/>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -2976,10 +2979,10 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="7">
         <v>3</v>
       </c>
@@ -5979,10 +5982,10 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="16"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="10">
         <v>19</v>
       </c>
@@ -6050,10 +6053,10 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="16"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="10"/>
       <c r="D66" s="5"/>
       <c r="E66"/>
@@ -6119,10 +6122,10 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="17"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="10"/>
       <c r="D67" s="5"/>
       <c r="E67"/>
@@ -6143,15 +6146,15 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K98" si="29">IFERROR(FIND(",",D67),J67)</f>
+        <f t="shared" ref="K67:K75" si="29">IFERROR(FIND(",",D67),J67)</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L98" si="30">IFERROR(FIND(",",D67,K67),K67)</f>
+        <f t="shared" ref="L67:L75" si="30">IFERROR(FIND(",",D67,K67),K67)</f>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M98" si="31">IFERROR(FIND(",",D67,L67),L67)</f>
+        <f t="shared" ref="M67:M75" si="31">IFERROR(FIND(",",D67,L67),L67)</f>
         <v>0</v>
       </c>
       <c r="N67" t="str">
@@ -6188,10 +6191,10 @@
       </c>
     </row>
     <row r="68" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="18"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="11">
         <v>3</v>
       </c>
@@ -6261,10 +6264,10 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="18"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="11">
         <v>3</v>
       </c>
@@ -6334,10 +6337,10 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="18"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="11">
         <v>3</v>
       </c>
@@ -6407,10 +6410,10 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="18"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="11">
         <v>4</v>
       </c>
@@ -6480,10 +6483,10 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="18"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="11">
         <v>3</v>
       </c>
@@ -6553,10 +6556,10 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="16"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="10">
         <v>16</v>
       </c>
@@ -6626,10 +6629,10 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="17"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="10"/>
       <c r="D74" s="1"/>
       <c r="E74"/>
@@ -6695,10 +6698,10 @@
       </c>
     </row>
     <row r="75" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="18"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="11">
         <v>3</v>
       </c>
@@ -6768,10 +6771,10 @@
       </c>
     </row>
     <row r="76" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="18"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="7">
         <v>3</v>
       </c>
@@ -7058,7 +7061,7 @@
       <c r="A80" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="17">
         <v>14</v>
       </c>
       <c r="D80" s="5"/>
@@ -7128,7 +7131,7 @@
       <c r="A81" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="16"/>
+      <c r="C81" s="17"/>
       <c r="D81" s="5"/>
       <c r="E81"/>
       <c r="G81" t="str">
@@ -7412,7 +7415,7 @@
       <c r="A85" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="17">
         <v>10</v>
       </c>
       <c r="D85" s="5"/>
@@ -7482,7 +7485,7 @@
       <c r="A86" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="16"/>
+      <c r="C86" s="17"/>
       <c r="D86" s="5"/>
       <c r="E86"/>
       <c r="F86" s="13"/>
@@ -7618,8 +7621,8 @@
       </c>
     </row>
     <row r="88" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88"/>
@@ -7686,8 +7689,8 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89"/>
@@ -13226,16 +13229,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
@@ -13252,6 +13245,16 @@
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14195,13 +14198,13 @@
   <dimension ref="A1:U177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" style="8" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" hidden="1" customWidth="1"/>
@@ -14218,22 +14221,25 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="F2" t="s">
         <v>37</v>
@@ -24128,7 +24134,7 @@
         <v/>
       </c>
       <c r="P148" t="str">
-        <f t="shared" ref="P148:R183" si="37">IF(M148="","",""""&amp;M148&amp;"""")</f>
+        <f t="shared" ref="P148:R177" si="37">IF(M148="","",""""&amp;M148&amp;"""")</f>
         <v/>
       </c>
       <c r="Q148" t="str">
@@ -25852,15 +25858,15 @@
         <v>0</v>
       </c>
       <c r="M176" t="str">
-        <f t="shared" ref="M131:M194" si="38">TRIM(SUBSTITUTE(IFERROR(MID(C176,1,J176),""),",",""))</f>
+        <f t="shared" ref="M176:M177" si="38">TRIM(SUBSTITUTE(IFERROR(MID(C176,1,J176),""),",",""))</f>
         <v/>
       </c>
       <c r="N176" t="str">
-        <f t="shared" ref="N131:N194" si="39">TRIM(SUBSTITUTE(IFERROR(MID(C176,J176+1,K176),""),",",""))</f>
+        <f t="shared" ref="N176:N177" si="39">TRIM(SUBSTITUTE(IFERROR(MID(C176,J176+1,K176),""),",",""))</f>
         <v/>
       </c>
       <c r="O176" t="str">
-        <f t="shared" ref="O131:O194" si="40">TRIM(SUBSTITUTE(IFERROR(MID(C176,K176+1,L176-K176),""),",",""))</f>
+        <f t="shared" ref="O176:O177" si="40">TRIM(SUBSTITUTE(IFERROR(MID(C176,K176+1,L176-K176),""),",",""))</f>
         <v/>
       </c>
       <c r="P176" t="str">
